--- a/public/assets/data/renovation_upgrade.xlsx
+++ b/public/assets/data/renovation_upgrade.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DB0C01-74DA-4686-B0EC-3D22460AF4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Лист1!$A$1:$AD$86</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="318">
   <si>
     <t>Т/р</t>
   </si>
@@ -233,9 +239,6 @@
     <t>6.</t>
   </si>
   <si>
-    <t>Беларик (1,25 га)</t>
-  </si>
-  <si>
     <t>1,5</t>
   </si>
   <si>
@@ -246,9 +249,6 @@
   </si>
   <si>
     <t>7.</t>
-  </si>
-  <si>
-    <t>Кушбеги (2,14 га)</t>
   </si>
   <si>
     <t>2,5</t>
@@ -279,18 +279,12 @@
     <t>9.</t>
   </si>
   <si>
-    <t>Илтифот 1 (9,6 га)</t>
-  </si>
-  <si>
     <t>Hamsa Concern</t>
   </si>
   <si>
     <t>10.</t>
   </si>
   <si>
-    <t>Илтифот 2 (2,28 га)</t>
-  </si>
-  <si>
     <t>12-18</t>
   </si>
   <si>
@@ -304,9 +298,6 @@
   </si>
   <si>
     <t>11.</t>
-  </si>
-  <si>
-    <t>Илтифот 3 (2,51 га)</t>
   </si>
   <si>
     <t>Mega House Stroy Lyuks</t>
@@ -349,9 +340,6 @@
     <t>15.</t>
   </si>
   <si>
-    <t>Навнихол-1 (7 га)</t>
-  </si>
-  <si>
     <t>9-16</t>
   </si>
   <si>
@@ -377,9 +365,6 @@
     <t>Мирабадский</t>
   </si>
   <si>
-    <t xml:space="preserve">Истиклолобод </t>
-  </si>
-  <si>
     <t>9-12</t>
   </si>
   <si>
@@ -402,9 +387,6 @@
     <t>Сергелийский</t>
   </si>
   <si>
-    <t>Олтинводий (1,25 га)</t>
-  </si>
-  <si>
     <t>518-14-0-Q/24 
 01.08.2024</t>
   </si>
@@ -418,9 +400,6 @@
     <t>Шайхонтохурский</t>
   </si>
   <si>
-    <t>Лабзак (2,6 га)</t>
-  </si>
-  <si>
     <t>521-14-0-Q/24 
 01.08.2024</t>
   </si>
@@ -428,9 +407,6 @@
     <t>21.</t>
   </si>
   <si>
-    <t>Токимачи-1 (10,0 га)</t>
-  </si>
-  <si>
     <t>World MaxTrade</t>
   </si>
   <si>
@@ -456,9 +432,6 @@
     <t>24.</t>
   </si>
   <si>
-    <t>Хусайн Байқаро (2,77 га)</t>
-  </si>
-  <si>
     <t>9-18</t>
   </si>
   <si>
@@ -472,9 +445,6 @@
   </si>
   <si>
     <t>25.</t>
-  </si>
-  <si>
-    <t>Хусайн Байқаро (8,23 га)</t>
   </si>
   <si>
     <t xml:space="preserve"> COMFORT CONSTRUCTION</t>
@@ -514,9 +484,6 @@
     <t>29.</t>
   </si>
   <si>
-    <t>Наккошлик 3а (авар. дом) (1 га)</t>
-  </si>
-  <si>
     <t>К/5</t>
   </si>
   <si>
@@ -568,9 +535,6 @@
     <t>33.</t>
   </si>
   <si>
-    <t>Лабзак (1,46 га)</t>
-  </si>
-  <si>
     <t>16-25</t>
   </si>
   <si>
@@ -610,9 +574,6 @@
     <t>36.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Буюк Турон (2,43 га)</t>
-  </si>
-  <si>
     <t>2
 2,5</t>
   </si>
@@ -677,16 +638,10 @@
     <t>41.</t>
   </si>
   <si>
-    <t>Жаркурган (20 га)</t>
-  </si>
-  <si>
     <t>7-10</t>
   </si>
   <si>
     <t>42.</t>
-  </si>
-  <si>
-    <t>Шохжахон (2,73 га)</t>
   </si>
   <si>
     <t>1,5
@@ -725,9 +680,6 @@
     <t>45.</t>
   </si>
   <si>
-    <t>Амира Темура (9,5 га)</t>
-  </si>
-  <si>
     <t>360-14-0-Q/25</t>
   </si>
   <si>
@@ -767,21 +719,12 @@
     <t>51.</t>
   </si>
   <si>
-    <t>Янгизамон 1</t>
-  </si>
-  <si>
     <t>52.</t>
   </si>
   <si>
-    <t>Янгизамон 2</t>
-  </si>
-  <si>
     <t>53.</t>
   </si>
   <si>
-    <t>Олтинкул</t>
-  </si>
-  <si>
     <t>54.</t>
   </si>
   <si>
@@ -800,9 +743,6 @@
     <t>56.</t>
   </si>
   <si>
-    <t>Подшобог+ Олмачи (3,59 га)</t>
-  </si>
-  <si>
     <t>57.</t>
   </si>
   <si>
@@ -818,22 +758,13 @@
     <t>59.</t>
   </si>
   <si>
-    <t>Ижодкор (26,71 га)</t>
-  </si>
-  <si>
     <t>60.</t>
   </si>
   <si>
-    <t>Сугдиена-1 (3,4 га)</t>
-  </si>
-  <si>
     <t>9-15</t>
   </si>
   <si>
     <t>61.</t>
-  </si>
-  <si>
-    <t>Сугдиена-2 (6,87 га)</t>
   </si>
   <si>
     <t>62.</t>
@@ -865,9 +796,6 @@
     <t>65.</t>
   </si>
   <si>
-    <t>Даръёбуйи (8,08 га)</t>
-  </si>
-  <si>
     <t>66.</t>
   </si>
   <si>
@@ -883,9 +811,6 @@
     <t>68.</t>
   </si>
   <si>
-    <t>Бойкурган (1,4 га)</t>
-  </si>
-  <si>
     <t>69.</t>
   </si>
   <si>
@@ -893,9 +818,6 @@
   </si>
   <si>
     <t>70.</t>
-  </si>
-  <si>
-    <t>Куксарой кадрият (1,97 га)</t>
   </si>
   <si>
     <t>71.</t>
@@ -995,68 +917,103 @@
     <t>85.</t>
   </si>
   <si>
-    <t>Еш Авлод (КТИ)</t>
-  </si>
-  <si>
-    <t>жараёнда</t>
-  </si>
-  <si>
-    <t>28 та</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 этабдан ўтганлар сони жами </t>
-  </si>
-  <si>
-    <t>22 та</t>
-  </si>
-  <si>
-    <t>2 этап ўтганлар</t>
-  </si>
-  <si>
-    <t>6 та</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ижобийлар </t>
-  </si>
-  <si>
-    <t>17 та</t>
-  </si>
-  <si>
-    <t>Ижобий</t>
-  </si>
-  <si>
-    <t>хужжат топширгани</t>
-  </si>
-  <si>
-    <t>3 та</t>
-  </si>
-  <si>
-    <t>баён жарёни</t>
-  </si>
-  <si>
-    <t>4 та</t>
-  </si>
-  <si>
-    <t>рад этилди</t>
-  </si>
-  <si>
-    <t>5 та</t>
-  </si>
-  <si>
-    <t>муддати ўтган</t>
-  </si>
-  <si>
-    <t>Оценкада</t>
-  </si>
-  <si>
-    <t>13 та</t>
+    <t>Беларик (1,2 га)</t>
+  </si>
+  <si>
+    <t>Кушбеги (1 га)</t>
+  </si>
+  <si>
+    <t>Илтифот 1 (9,3 га)</t>
+  </si>
+  <si>
+    <t>Илтифот 2 (1,55 га)</t>
+  </si>
+  <si>
+    <t>Илтифот 3 (2,25 га)</t>
+  </si>
+  <si>
+    <t>Навнихол-1 (6,37 га)</t>
+  </si>
+  <si>
+    <t>Олтинводий (1,58 га)</t>
+  </si>
+  <si>
+    <t>Истиклолобод (0,8 га)</t>
+  </si>
+  <si>
+    <t>Лабзак-1 (2,6 га)</t>
+  </si>
+  <si>
+    <t>Лабзак-2 (1,46 га)</t>
+  </si>
+  <si>
+    <t>Токимачи-1 (0,25 га)</t>
+  </si>
+  <si>
+    <t>Буюк Турон (2,43 га)</t>
+  </si>
+  <si>
+    <t>86.</t>
+  </si>
+  <si>
+    <t>Уста Ширин (0,15 га)</t>
+  </si>
+  <si>
+    <t>Хусайн Байқаро (2,44 га)</t>
+  </si>
+  <si>
+    <t>Хусайн Байқаро (7 га)</t>
+  </si>
+  <si>
+    <t>Наккошлик (1 га)</t>
+  </si>
+  <si>
+    <t>Жаркурган (22 га)</t>
+  </si>
+  <si>
+    <t>Шохжахон (4,56 га)</t>
+  </si>
+  <si>
+    <t>Амира Темура (8,9 га)</t>
+  </si>
+  <si>
+    <t>Подшобог+Олмачи (3,59 га)</t>
+  </si>
+  <si>
+    <t>Янгизамон 1 (2,39 га)</t>
+  </si>
+  <si>
+    <t>Янгизамон 2 (4 га)</t>
+  </si>
+  <si>
+    <t>Олтинкул (3,92 га)</t>
+  </si>
+  <si>
+    <t>Дарёбуйи (8,08 га)</t>
+  </si>
+  <si>
+    <t>Сугдиёна-1 (3,4 га)</t>
+  </si>
+  <si>
+    <t>Сугдиёна-2 (6,87 га)</t>
+  </si>
+  <si>
+    <t>Бойкургон (1,4 га)</t>
+  </si>
+  <si>
+    <t>Кадрият (1,97 га)</t>
+  </si>
+  <si>
+    <t>Ёш Авлод (КТИ)</t>
+  </si>
+  <si>
+    <t>Ижодкор (2,76 га)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1094,7 +1051,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1108,16 +1065,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,64 +1090,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1201,10 +1153,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1242,71 +1194,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1334,7 +1286,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1357,11 +1309,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1370,13 +1322,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1386,7 +1338,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1395,7 +1347,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1404,7 +1356,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1412,10 +1364,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1480,49 +1432,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AD91"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="60.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="39.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="33.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="33.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="16" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="41.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="14" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="14" width="40.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="14" width="38.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="16" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="16" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="14" width="54.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="16" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="14" width="44.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="14" width="45.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="16" width="39.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="16" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="16" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="14" width="34.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="54.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="44.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="45.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="39.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.44140625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.5">
+    <row r="1" spans="1:30" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="43.5">
+    <row r="2" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -1637,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="5">
-        <v>541.2</v>
+        <v>541.20000000000005</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>33</v>
@@ -1704,7 +1658,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="43.5">
+    <row r="3" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
@@ -1794,7 +1748,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="43.5">
+    <row r="4" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -1882,7 +1836,7 @@
       </c>
       <c r="AD4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="43.5">
+    <row r="5" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -1893,7 +1847,7 @@
         <v>58</v>
       </c>
       <c r="D5" s="5">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>33</v>
@@ -1950,7 +1904,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="43.5">
+    <row r="6" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>62</v>
       </c>
@@ -2038,7 +1992,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="43.5">
+    <row r="7" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>68</v>
       </c>
@@ -2046,7 +2000,7 @@
         <v>63</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>287</v>
       </c>
       <c r="D7" s="5">
         <v>1.25</v>
@@ -2062,7 +2016,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L7" s="7">
         <v>30</v>
@@ -2083,7 +2037,7 @@
         <v>36</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>38</v>
@@ -2099,7 +2053,7 @@
         <v>45768</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>40</v>
@@ -2120,18 +2074,18 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="43.5">
+    <row r="8" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>288</v>
       </c>
       <c r="D8" s="5">
-        <v>2.14</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -2144,7 +2098,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L8" s="7">
         <v>30</v>
@@ -2165,7 +2119,7 @@
         <v>36</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>38</v>
@@ -2181,7 +2135,7 @@
         <v>45768</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>40</v>
@@ -2202,15 +2156,15 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="43.5">
+    <row r="9" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D9" s="5">
         <v>0.31</v>
@@ -2246,7 +2200,7 @@
         <v>10</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>35</v>
@@ -2256,7 +2210,7 @@
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -2269,21 +2223,21 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="43.5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>84</v>
+        <v>289</v>
       </c>
       <c r="D10" s="5">
-        <v>9.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>33</v>
@@ -2295,7 +2249,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="5">
-        <v>16716.67</v>
+        <v>16716.669999999998</v>
       </c>
       <c r="I10" s="7">
         <v>14</v>
@@ -2304,7 +2258,7 @@
         <v>19434</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7">
         <v>30</v>
@@ -2316,7 +2270,7 @@
         <v>12</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>35</v>
@@ -2325,7 +2279,7 @@
         <v>36</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>38</v>
@@ -2346,18 +2300,18 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="43.5">
+    <row r="11" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>87</v>
+        <v>290</v>
       </c>
       <c r="D11" s="5">
-        <v>2.28</v>
+        <v>1.55</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>33</v>
@@ -2378,7 +2332,7 @@
         <v>1004</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7">
         <v>30</v>
@@ -2387,10 +2341,10 @@
         <v>5</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>35</v>
@@ -2399,7 +2353,7 @@
         <v>36</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>38</v>
@@ -2415,10 +2369,10 @@
         <v>45768</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z11" s="7">
         <v>45792</v>
@@ -2436,18 +2390,18 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="43.5">
+    <row r="12" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>93</v>
+        <v>291</v>
       </c>
       <c r="D12" s="5">
-        <v>2.51</v>
+        <v>2.25</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>33</v>
@@ -2468,7 +2422,7 @@
         <v>1400</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7">
         <v>30</v>
@@ -2480,7 +2434,7 @@
         <v>9</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>35</v>
@@ -2489,10 +2443,10 @@
         <v>36</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="T12" s="7">
         <v>-1</v>
@@ -2510,15 +2464,15 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="43.5">
+    <row r="13" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D13" s="5">
         <v>3.2</v>
@@ -2554,7 +2508,7 @@
         <v>7</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>35</v>
@@ -2563,7 +2517,7 @@
         <v>36</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>38</v>
@@ -2579,10 +2533,10 @@
         <v>45768</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z13" s="7">
         <v>45792</v>
@@ -2600,15 +2554,15 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="43.5">
+    <row r="14" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D14" s="5">
         <v>3.7</v>
@@ -2644,7 +2598,7 @@
         <v>12</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>35</v>
@@ -2654,7 +2608,7 @@
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -2667,18 +2621,18 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="43.5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D15" s="5">
         <v>3.3</v>
@@ -2702,7 +2656,7 @@
         <v>33</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L15" s="7">
         <v>30</v>
@@ -2714,7 +2668,7 @@
         <v>16</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>35</v>
@@ -2723,7 +2677,7 @@
         <v>36</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>38</v>
@@ -2746,18 +2700,18 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="43.5">
+    <row r="16" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="7">
-        <v>7</v>
+        <v>292</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6.37</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>33</v>
@@ -2778,7 +2732,7 @@
         <v>10123</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7">
         <v>30</v>
@@ -2787,10 +2741,10 @@
         <v>5</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>35</v>
@@ -2800,7 +2754,7 @@
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -2813,18 +2767,18 @@
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="43.5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D17" s="5">
         <v>0.4</v>
@@ -2848,7 +2802,7 @@
         <v>175</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7">
         <v>30</v>
@@ -2860,7 +2814,7 @@
         <v>14</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>35</v>
@@ -2869,10 +2823,10 @@
         <v>36</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="T17" s="7">
         <v>1</v>
@@ -2890,15 +2844,15 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="43.5">
+    <row r="18" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>116</v>
+        <v>294</v>
       </c>
       <c r="D18" s="5">
         <v>0.8</v>
@@ -2931,10 +2885,10 @@
         <v>5</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4" t="s">
@@ -2942,10 +2896,10 @@
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="4"/>
@@ -2957,18 +2911,18 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="43.5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D19" s="5">
         <v>12.9</v>
@@ -3004,7 +2958,7 @@
         <v>16</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4" t="s">
@@ -3012,7 +2966,7 @@
       </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -3025,21 +2979,21 @@
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="43.5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
       <c r="D20" s="5">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="E20" s="7">
         <v>45</v>
@@ -3072,7 +3026,7 @@
         <v>12</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>35</v>
@@ -3081,7 +3035,7 @@
         <v>36</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="S20" s="4" t="s">
         <v>38</v>
@@ -3104,15 +3058,15 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="43.5">
+    <row r="21" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>129</v>
+        <v>295</v>
       </c>
       <c r="D21" s="5">
         <v>2.6</v>
@@ -3148,7 +3102,7 @@
         <v>16</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>35</v>
@@ -3158,7 +3112,7 @@
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -3171,18 +3125,18 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="D22" s="5">
         <v>0.25</v>
@@ -3206,7 +3160,7 @@
         <v>162</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L22" s="7">
         <v>30</v>
@@ -3227,10 +3181,10 @@
         <v>36</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="T22" s="7">
         <v>-1</v>
@@ -3248,15 +3202,15 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D23" s="5">
         <v>0.4</v>
@@ -3280,7 +3234,7 @@
         <v>33</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L23" s="7">
         <v>30</v>
@@ -3300,7 +3254,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -3313,21 +3267,21 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D24" s="5">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E24" s="7">
         <v>25</v>
@@ -3348,7 +3302,7 @@
         <v>9362</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7">
         <v>60</v>
@@ -3360,7 +3314,7 @@
         <v>10</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>35</v>
@@ -3368,7 +3322,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
@@ -3382,18 +3336,18 @@
       <c r="AC24" s="7"/>
       <c r="AD24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>141</v>
+        <v>301</v>
       </c>
       <c r="D25" s="5">
-        <v>2.77</v>
+        <v>2.44</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>33</v>
@@ -3414,7 +3368,7 @@
         <v>33</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L25" s="7">
         <v>30</v>
@@ -3423,10 +3377,10 @@
         <v>5</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>35</v>
@@ -3435,7 +3389,7 @@
         <v>36</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="S25" s="4" t="s">
         <v>38</v>
@@ -3448,13 +3402,13 @@
       </c>
       <c r="V25" s="4"/>
       <c r="W25" s="6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="X25" s="4" t="s">
         <v>55</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="Z25" s="7">
         <v>45792</v>
@@ -3472,18 +3426,18 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>147</v>
+        <v>302</v>
       </c>
       <c r="D26" s="5">
-        <v>8.23</v>
+        <v>7</v>
       </c>
       <c r="E26" s="7">
         <v>22</v>
@@ -3504,7 +3458,7 @@
         <v>7896</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L26" s="7">
         <v>30</v>
@@ -3516,7 +3470,7 @@
         <v>12</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>35</v>
@@ -3525,7 +3479,7 @@
         <v>36</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="S26" s="4" t="s">
         <v>38</v>
@@ -3538,13 +3492,13 @@
       </c>
       <c r="V26" s="4"/>
       <c r="W26" s="6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="X26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="Z26" s="7">
         <v>45792</v>
@@ -3562,15 +3516,15 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D27" s="5">
         <v>0.4</v>
@@ -3606,7 +3560,7 @@
         <v>35</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>35</v>
@@ -3615,7 +3569,7 @@
         <v>36</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="S27" s="4" t="s">
         <v>38</v>
@@ -3628,10 +3582,10 @@
       </c>
       <c r="V27" s="4"/>
       <c r="W27" s="6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y27" s="4" t="s">
         <v>40</v>
@@ -3652,15 +3606,15 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D28" s="5">
         <v>0.3</v>
@@ -3693,10 +3647,10 @@
         <v>7</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>35</v>
@@ -3705,10 +3659,10 @@
         <v>36</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="T28" s="7">
         <v>-1</v>
@@ -3726,15 +3680,15 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D29" s="5">
         <v>7.3</v>
@@ -3767,10 +3721,10 @@
         <v>5</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>35</v>
@@ -3778,7 +3732,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -3791,18 +3745,18 @@
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>160</v>
+        <v>303</v>
       </c>
       <c r="D30" s="7">
         <v>1</v>
@@ -3817,7 +3771,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="5">
-        <v>4710.14</v>
+        <v>4710.1400000000003</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>33</v>
@@ -3832,13 +3786,13 @@
         <v>20</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>35</v>
@@ -3847,7 +3801,7 @@
         <v>36</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>38</v>
@@ -3870,15 +3824,15 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D31" s="5">
         <v>1.64</v>
@@ -3914,7 +3868,7 @@
         <v>12</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>35</v>
@@ -3923,10 +3877,10 @@
         <v>36</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="T31" s="7">
         <v>-1</v>
@@ -3944,15 +3898,15 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D32" s="5">
         <v>0.3</v>
@@ -3982,13 +3936,13 @@
         <v>30</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="N32" s="7">
         <v>7</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>35</v>
@@ -3996,7 +3950,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
@@ -4009,18 +3963,18 @@
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
       <c r="AD32" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D33" s="5">
         <v>2.5</v>
@@ -4044,10 +3998,10 @@
         <v>1000</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>47</v>
@@ -4056,7 +4010,7 @@
         <v>16</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>35</v>
@@ -4065,7 +4019,7 @@
         <v>36</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="S33" s="4" t="s">
         <v>38</v>
@@ -4086,15 +4040,15 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>177</v>
+        <v>296</v>
       </c>
       <c r="D34" s="5">
         <v>1.46</v>
@@ -4127,10 +4081,10 @@
         <v>5</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>35</v>
@@ -4139,10 +4093,10 @@
         <v>36</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="T34" s="7">
         <v>1</v>
@@ -4160,15 +4114,15 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D35" s="7">
         <v>1</v>
@@ -4183,7 +4137,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="5">
-        <v>565.92</v>
+        <v>565.91999999999996</v>
       </c>
       <c r="I35" s="7">
         <v>17</v>
@@ -4204,7 +4158,7 @@
         <v>9</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>35</v>
@@ -4213,10 +4167,10 @@
         <v>36</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="T35" s="7">
         <v>-1</v>
@@ -4234,15 +4188,15 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D36" s="5">
         <v>28.89</v>
@@ -4269,16 +4223,16 @@
         <v>45</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>35</v>
@@ -4287,10 +4241,10 @@
         <v>36</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="T36" s="7">
         <v>1</v>
@@ -4308,18 +4262,18 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>190</v>
+        <v>298</v>
       </c>
       <c r="D37" s="5">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="E37" s="7">
         <v>28</v>
@@ -4340,19 +4294,19 @@
         <v>2931</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>35</v>
@@ -4361,10 +4315,10 @@
         <v>36</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="T37" s="7">
         <v>-1</v>
@@ -4382,15 +4336,15 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D38" s="5">
         <v>4.2</v>
@@ -4426,7 +4380,7 @@
         <v>10</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>35</v>
@@ -4435,10 +4389,10 @@
         <v>36</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="T38" s="7">
         <v>1</v>
@@ -4456,15 +4410,15 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D39" s="5">
         <v>3.7</v>
@@ -4500,7 +4454,7 @@
         <v>9</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>35</v>
@@ -4508,7 +4462,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
@@ -4521,18 +4475,18 @@
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
       <c r="AD39" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D40" s="7">
         <v>2</v>
@@ -4568,7 +4522,7 @@
         <v>13</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>35</v>
@@ -4577,10 +4531,10 @@
         <v>36</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="T40" s="7">
         <v>1</v>
@@ -4598,18 +4552,18 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D41" s="5">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>33</v>
@@ -4621,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="5">
-        <v>1028.63</v>
+        <v>1028.6300000000001</v>
       </c>
       <c r="I41" s="7">
         <v>4</v>
@@ -4636,13 +4590,13 @@
         <v>20</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="N41" s="7">
         <v>12</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>35</v>
@@ -4650,7 +4604,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
@@ -4664,18 +4618,18 @@
       <c r="AC41" s="7"/>
       <c r="AD41" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="D42" s="5">
-        <v>12.3</v>
+        <v>22</v>
       </c>
       <c r="E42" s="7">
         <v>53</v>
@@ -4696,7 +4650,7 @@
         <v>45128</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L42" s="7">
         <v>30</v>
@@ -4705,10 +4659,10 @@
         <v>5</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>35</v>
@@ -4718,7 +4672,7 @@
       </c>
       <c r="R42" s="4"/>
       <c r="S42" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -4732,18 +4686,18 @@
       <c r="AC42" s="7"/>
       <c r="AD42" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="D43" s="5">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>33</v>
@@ -4764,19 +4718,19 @@
         <v>7281</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="M43" s="7">
         <v>5</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>35</v>
@@ -4785,7 +4739,7 @@
         <v>36</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="S43" s="4" t="s">
         <v>38</v>
@@ -4806,15 +4760,15 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D44" s="5">
         <v>2.35</v>
@@ -4838,7 +4792,7 @@
         <v>2828</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L44" s="7">
         <v>30</v>
@@ -4847,16 +4801,16 @@
         <v>5</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -4870,15 +4824,15 @@
       <c r="AC44" s="7"/>
       <c r="AD44" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D45" s="5">
         <v>8.15</v>
@@ -4914,13 +4868,13 @@
         <v>16</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -4934,18 +4888,18 @@
       <c r="AC45" s="7"/>
       <c r="AD45" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="D46" s="5">
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
       <c r="E46" s="7">
         <v>100</v>
@@ -4966,7 +4920,7 @@
         <v>4250</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L46" s="7">
         <v>30</v>
@@ -4978,13 +4932,13 @@
         <v>16</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -4998,15 +4952,15 @@
       <c r="AC46" s="7"/>
       <c r="AD46" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="D47" s="5">
         <v>0.88</v>
@@ -5030,7 +4984,7 @@
         <v>571</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L47" s="7">
         <v>30</v>
@@ -5042,13 +4996,13 @@
         <v>16</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
@@ -5062,15 +5016,15 @@
       <c r="AC47" s="7"/>
       <c r="AD47" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="D48" s="5">
         <v>3.2</v>
@@ -5106,13 +5060,13 @@
         <v>12</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
@@ -5126,15 +5080,15 @@
       <c r="AC48" s="7"/>
       <c r="AD48" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="D49" s="7">
         <v>3</v>
@@ -5158,7 +5112,7 @@
         <v>2529</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L49" s="7">
         <v>30</v>
@@ -5170,16 +5124,16 @@
         <v>16</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="U49" s="7"/>
       <c r="V49" s="4"/>
@@ -5192,15 +5146,15 @@
       <c r="AC49" s="7"/>
       <c r="AD49" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="D50" s="7">
         <v>4</v>
@@ -5236,13 +5190,13 @@
         <v>16</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
@@ -5256,15 +5210,15 @@
       <c r="AC50" s="7"/>
       <c r="AD50" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D51" s="5">
         <v>8.26</v>
@@ -5300,13 +5254,13 @@
         <v>16</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
@@ -5320,15 +5274,15 @@
       <c r="AC51" s="7"/>
       <c r="AD51" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="D52" s="5">
         <v>2.39</v>
@@ -5364,7 +5318,7 @@
         <v>16</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P52" s="4"/>
       <c r="Q52" s="4" t="s">
@@ -5372,7 +5326,7 @@
       </c>
       <c r="R52" s="4"/>
       <c r="S52" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
@@ -5386,15 +5340,15 @@
       <c r="AC52" s="7"/>
       <c r="AD52" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>242</v>
+        <v>309</v>
       </c>
       <c r="D53" s="7">
         <v>4</v>
@@ -5418,7 +5372,7 @@
         <v>308</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L53" s="7">
         <v>30</v>
@@ -5430,7 +5384,7 @@
         <v>16</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P53" s="4"/>
       <c r="Q53" s="4" t="s">
@@ -5438,7 +5392,7 @@
       </c>
       <c r="R53" s="4"/>
       <c r="S53" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
@@ -5452,15 +5406,15 @@
       <c r="AC53" s="7"/>
       <c r="AD53" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="D54" s="5">
         <v>3.92</v>
@@ -5484,7 +5438,7 @@
         <v>9362</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L54" s="7">
         <v>30</v>
@@ -5496,7 +5450,7 @@
         <v>16</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P54" s="4"/>
       <c r="Q54" s="4" t="s">
@@ -5504,7 +5458,7 @@
       </c>
       <c r="R54" s="4"/>
       <c r="S54" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
@@ -5518,15 +5472,15 @@
       <c r="AC54" s="7"/>
       <c r="AD54" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="D55" s="5">
         <v>1.84</v>
@@ -5550,7 +5504,7 @@
         <v>23000</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L55" s="7">
         <v>30</v>
@@ -5562,7 +5516,7 @@
         <v>16</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P55" s="4"/>
       <c r="Q55" s="4" t="s">
@@ -5570,7 +5524,7 @@
       </c>
       <c r="R55" s="4"/>
       <c r="S55" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
@@ -5584,18 +5538,18 @@
       <c r="AC55" s="7"/>
       <c r="AD55" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="D56" s="5">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="E56" s="7">
         <v>3</v>
@@ -5607,7 +5561,7 @@
         <v>23</v>
       </c>
       <c r="H56" s="5">
-        <v>9706.29</v>
+        <v>9706.2900000000009</v>
       </c>
       <c r="I56" s="7">
         <v>28</v>
@@ -5622,13 +5576,13 @@
         <v>60</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="N56" s="7">
         <v>16</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P56" s="4"/>
       <c r="Q56" s="4" t="s">
@@ -5636,7 +5590,7 @@
       </c>
       <c r="R56" s="4"/>
       <c r="S56" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
@@ -5650,15 +5604,15 @@
       <c r="AC56" s="7"/>
       <c r="AD56" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="D57" s="5">
         <v>3.59</v>
@@ -5694,7 +5648,7 @@
         <v>16</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P57" s="4"/>
       <c r="Q57" s="4" t="s">
@@ -5702,7 +5656,7 @@
       </c>
       <c r="R57" s="4"/>
       <c r="S57" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
@@ -5716,18 +5670,18 @@
       <c r="AC57" s="7"/>
       <c r="AD57" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D58" s="5">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>33</v>
@@ -5748,7 +5702,7 @@
         <v>33</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L58" s="7">
         <v>30</v>
@@ -5760,7 +5714,7 @@
         <v>16</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P58" s="4"/>
       <c r="Q58" s="4" t="s">
@@ -5768,7 +5722,7 @@
       </c>
       <c r="R58" s="4"/>
       <c r="S58" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
@@ -5782,15 +5736,15 @@
       <c r="AC58" s="7"/>
       <c r="AD58" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="D59" s="5">
         <v>1.21</v>
@@ -5826,7 +5780,7 @@
         <v>16</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P59" s="4"/>
       <c r="Q59" s="4" t="s">
@@ -5834,7 +5788,7 @@
       </c>
       <c r="R59" s="4"/>
       <c r="S59" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
@@ -5848,15 +5802,15 @@
       <c r="AC59" s="7"/>
       <c r="AD59" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="D60" s="5">
         <v>2.76</v>
@@ -5871,7 +5825,7 @@
         <v>10</v>
       </c>
       <c r="H60" s="5">
-        <v>8203.2</v>
+        <v>8203.2000000000007</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>33</v>
@@ -5892,7 +5846,7 @@
         <v>16</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P60" s="4"/>
       <c r="Q60" s="4" t="s">
@@ -5900,7 +5854,7 @@
       </c>
       <c r="R60" s="4"/>
       <c r="S60" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
@@ -5914,15 +5868,15 @@
       <c r="AC60" s="7"/>
       <c r="AD60" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="D61" s="5">
         <v>3.4</v>
@@ -5946,7 +5900,7 @@
         <v>3366</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L61" s="7">
         <v>30</v>
@@ -5955,10 +5909,10 @@
         <v>5</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P61" s="4"/>
       <c r="Q61" s="4" t="s">
@@ -5966,7 +5920,7 @@
       </c>
       <c r="R61" s="4"/>
       <c r="S61" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
@@ -5980,15 +5934,15 @@
       <c r="AC61" s="7"/>
       <c r="AD61" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="D62" s="5">
         <v>6.87</v>
@@ -6018,13 +5972,13 @@
         <v>40</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P62" s="4"/>
       <c r="Q62" s="4" t="s">
@@ -6032,7 +5986,7 @@
       </c>
       <c r="R62" s="4"/>
       <c r="S62" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
@@ -6046,15 +6000,15 @@
       <c r="AC62" s="7"/>
       <c r="AD62" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="D63" s="7">
         <v>4</v>
@@ -6090,7 +6044,7 @@
         <v>16</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P63" s="4"/>
       <c r="Q63" s="4" t="s">
@@ -6098,7 +6052,7 @@
       </c>
       <c r="R63" s="4"/>
       <c r="S63" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
@@ -6112,15 +6066,15 @@
       <c r="AC63" s="7"/>
       <c r="AD63" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="D64" s="5">
         <v>3.5</v>
@@ -6144,10 +6098,10 @@
         <v>481</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="M64" s="7">
         <v>5</v>
@@ -6156,7 +6110,7 @@
         <v>16</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P64" s="4"/>
       <c r="Q64" s="4" t="s">
@@ -6164,7 +6118,7 @@
       </c>
       <c r="R64" s="4"/>
       <c r="S64" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
@@ -6178,15 +6132,15 @@
       <c r="AC64" s="7"/>
       <c r="AD64" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="D65" s="5">
         <v>7.47</v>
@@ -6206,19 +6160,19 @@
         <v>5709</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L65" s="7">
         <v>30</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="N65" s="7">
         <v>16</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P65" s="4"/>
       <c r="Q65" s="4" t="s">
@@ -6226,7 +6180,7 @@
       </c>
       <c r="R65" s="4"/>
       <c r="S65" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
@@ -6240,15 +6194,15 @@
       <c r="AC65" s="7"/>
       <c r="AD65" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="D66" s="5">
         <v>8.08</v>
@@ -6284,7 +6238,7 @@
         <v>18</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P66" s="4"/>
       <c r="Q66" s="4" t="s">
@@ -6292,7 +6246,7 @@
       </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
@@ -6306,15 +6260,15 @@
       <c r="AC66" s="7"/>
       <c r="AD66" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="D67" s="5">
         <v>2.64</v>
@@ -6358,7 +6312,7 @@
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
@@ -6372,15 +6326,15 @@
       <c r="AC67" s="7"/>
       <c r="AD67" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="D68" s="5">
         <v>34.22</v>
@@ -6416,13 +6370,13 @@
         <v>16</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
@@ -6436,15 +6390,15 @@
       <c r="AC68" s="7"/>
       <c r="AD68" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="D69" s="5">
         <v>1.4</v>
@@ -6459,7 +6413,7 @@
         <v>7</v>
       </c>
       <c r="H69" s="5">
-        <v>4190.65</v>
+        <v>4190.6499999999996</v>
       </c>
       <c r="I69" s="7">
         <v>6</v>
@@ -6468,7 +6422,7 @@
         <v>520</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L69" s="7">
         <v>60</v>
@@ -6480,7 +6434,7 @@
         <v>16</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P69" s="4"/>
       <c r="Q69" s="4" t="s">
@@ -6488,7 +6442,7 @@
       </c>
       <c r="R69" s="4"/>
       <c r="S69" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
@@ -6502,15 +6456,15 @@
       <c r="AC69" s="7"/>
       <c r="AD69" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D70" s="5">
         <v>5.19</v>
@@ -6534,7 +6488,7 @@
         <v>16377</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L70" s="7">
         <v>60</v>
@@ -6546,7 +6500,7 @@
         <v>16</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P70" s="4"/>
       <c r="Q70" s="4" t="s">
@@ -6554,7 +6508,7 @@
       </c>
       <c r="R70" s="4"/>
       <c r="S70" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
@@ -6568,15 +6522,15 @@
       <c r="AC70" s="7"/>
       <c r="AD70" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="D71" s="5">
         <v>1.97</v>
@@ -6612,7 +6566,7 @@
         <v>16</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P71" s="4"/>
       <c r="Q71" s="4" t="s">
@@ -6620,7 +6574,7 @@
       </c>
       <c r="R71" s="4"/>
       <c r="S71" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
@@ -6634,18 +6588,18 @@
       <c r="AC71" s="7"/>
       <c r="AD71" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="D72" s="5">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E72" s="7">
         <v>1</v>
@@ -6678,7 +6632,7 @@
         <v>16</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P72" s="4"/>
       <c r="Q72" s="4" t="s">
@@ -6686,7 +6640,7 @@
       </c>
       <c r="R72" s="4"/>
       <c r="S72" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
@@ -6700,15 +6654,15 @@
       <c r="AC72" s="7"/>
       <c r="AD72" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="D73" s="5">
         <v>0.3</v>
@@ -6723,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="5">
-        <v>612.07</v>
+        <v>612.07000000000005</v>
       </c>
       <c r="I73" s="7">
         <v>3</v>
@@ -6741,10 +6695,10 @@
         <v>59</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P73" s="4"/>
       <c r="Q73" s="4" t="s">
@@ -6752,7 +6706,7 @@
       </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
@@ -6766,15 +6720,15 @@
       <c r="AC73" s="7"/>
       <c r="AD73" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="D74" s="5">
         <v>0.48</v>
@@ -6798,7 +6752,7 @@
         <v>33</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L74" s="7">
         <v>30</v>
@@ -6810,7 +6764,7 @@
         <v>16</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P74" s="4"/>
       <c r="Q74" s="4" t="s">
@@ -6818,7 +6772,7 @@
       </c>
       <c r="R74" s="4"/>
       <c r="S74" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
@@ -6832,15 +6786,15 @@
       <c r="AC74" s="7"/>
       <c r="AD74" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="D75" s="5">
         <v>2.12</v>
@@ -6864,7 +6818,7 @@
         <v>1326</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L75" s="7">
         <v>30</v>
@@ -6876,7 +6830,7 @@
         <v>16</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P75" s="4"/>
       <c r="Q75" s="4" t="s">
@@ -6884,7 +6838,7 @@
       </c>
       <c r="R75" s="4"/>
       <c r="S75" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
@@ -6898,15 +6852,15 @@
       <c r="AC75" s="7"/>
       <c r="AD75" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="D76" s="5">
         <v>1.65</v>
@@ -6930,7 +6884,7 @@
         <v>33</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L76" s="7">
         <v>30</v>
@@ -6942,7 +6896,7 @@
         <v>16</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P76" s="4"/>
       <c r="Q76" s="4" t="s">
@@ -6950,7 +6904,7 @@
       </c>
       <c r="R76" s="4"/>
       <c r="S76" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
@@ -6964,15 +6918,15 @@
       <c r="AC76" s="7"/>
       <c r="AD76" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D77" s="5">
         <v>0.8</v>
@@ -6996,7 +6950,7 @@
         <v>33</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L77" s="7">
         <v>30</v>
@@ -7008,7 +6962,7 @@
         <v>16</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P77" s="4"/>
       <c r="Q77" s="4" t="s">
@@ -7016,7 +6970,7 @@
       </c>
       <c r="R77" s="4"/>
       <c r="S77" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
@@ -7030,15 +6984,15 @@
       <c r="AC77" s="7"/>
       <c r="AD77" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="D78" s="5">
         <v>1.19</v>
@@ -7074,7 +7028,7 @@
         <v>16</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P78" s="4"/>
       <c r="Q78" s="4" t="s">
@@ -7082,7 +7036,7 @@
       </c>
       <c r="R78" s="4"/>
       <c r="S78" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
@@ -7096,15 +7050,15 @@
       <c r="AC78" s="7"/>
       <c r="AD78" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="D79" s="5">
         <v>0.88</v>
@@ -7128,7 +7082,7 @@
         <v>986</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L79" s="7">
         <v>30</v>
@@ -7140,7 +7094,7 @@
         <v>16</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P79" s="4"/>
       <c r="Q79" s="4" t="s">
@@ -7148,7 +7102,7 @@
       </c>
       <c r="R79" s="4"/>
       <c r="S79" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
@@ -7162,15 +7116,15 @@
       <c r="AC79" s="7"/>
       <c r="AD79" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="D80" s="5">
         <v>0.33</v>
@@ -7194,7 +7148,7 @@
         <v>70</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L80" s="7">
         <v>30</v>
@@ -7206,7 +7160,7 @@
         <v>16</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P80" s="4"/>
       <c r="Q80" s="4" t="s">
@@ -7214,7 +7168,7 @@
       </c>
       <c r="R80" s="4"/>
       <c r="S80" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
@@ -7228,15 +7182,15 @@
       <c r="AC80" s="7"/>
       <c r="AD80" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="D81" s="5">
         <v>0.67</v>
@@ -7272,7 +7226,7 @@
         <v>16</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P81" s="4"/>
       <c r="Q81" s="4" t="s">
@@ -7280,7 +7234,7 @@
       </c>
       <c r="R81" s="4"/>
       <c r="S81" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
@@ -7294,15 +7248,15 @@
       <c r="AC81" s="7"/>
       <c r="AD81" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D82" s="5">
         <v>0.98</v>
@@ -7338,7 +7292,7 @@
         <v>16</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P82" s="4"/>
       <c r="Q82" s="4" t="s">
@@ -7346,7 +7300,7 @@
       </c>
       <c r="R82" s="4"/>
       <c r="S82" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T82" s="7"/>
       <c r="U82" s="7"/>
@@ -7360,15 +7314,15 @@
       <c r="AC82" s="7"/>
       <c r="AD82" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="D83" s="5">
         <v>0.16</v>
@@ -7404,7 +7358,7 @@
         <v>16</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P83" s="4"/>
       <c r="Q83" s="4" t="s">
@@ -7412,7 +7366,7 @@
       </c>
       <c r="R83" s="4"/>
       <c r="S83" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
@@ -7426,15 +7380,15 @@
       <c r="AC83" s="7"/>
       <c r="AD83" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="D84" s="5">
         <v>9.73</v>
@@ -7470,7 +7424,7 @@
         <v>16</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P84" s="4"/>
       <c r="Q84" s="4" t="s">
@@ -7478,7 +7432,7 @@
       </c>
       <c r="R84" s="4"/>
       <c r="S84" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T84" s="7"/>
       <c r="U84" s="7"/>
@@ -7492,15 +7446,15 @@
       <c r="AC84" s="7"/>
       <c r="AD84" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D85" s="5">
         <v>9.32</v>
@@ -7536,7 +7490,7 @@
         <v>16</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P85" s="4"/>
       <c r="Q85" s="4" t="s">
@@ -7544,7 +7498,7 @@
       </c>
       <c r="R85" s="4"/>
       <c r="S85" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
@@ -7558,18 +7512,18 @@
       <c r="AC85" s="7"/>
       <c r="AD85" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D86" s="5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
@@ -7595,17 +7549,17 @@
         <v>7</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="T86" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="U86" s="7"/>
       <c r="V86" s="4"/>
@@ -7618,26 +7572,52 @@
       <c r="AC86" s="7"/>
       <c r="AD86" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="5"/>
+    <row r="87" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E87" s="7">
+        <v>7</v>
+      </c>
+      <c r="F87" s="7">
+        <v>1340</v>
+      </c>
+      <c r="G87" s="7">
+        <v>1</v>
+      </c>
+      <c r="H87" s="5">
+        <v>321</v>
+      </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
+      <c r="K87" s="7">
+        <v>1</v>
+      </c>
+      <c r="L87" s="7">
+        <v>60</v>
+      </c>
+      <c r="M87" s="7">
+        <v>2</v>
+      </c>
+      <c r="N87" s="7">
+        <v>12</v>
+      </c>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
+      <c r="S87" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
       <c r="V87" s="4"/>
@@ -7650,7 +7630,7 @@
       <c r="AC87" s="7"/>
       <c r="AD87" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -7682,34 +7662,18 @@
       <c r="AC88" s="7"/>
       <c r="AD88" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>320</v>
-      </c>
+    <row r="89" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="6"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="6" t="s">
-        <v>321</v>
-      </c>
+      <c r="G89" s="6"/>
       <c r="H89" s="5"/>
       <c r="I89" s="7"/>
-      <c r="J89" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>323</v>
-      </c>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
@@ -7730,30 +7694,18 @@
       <c r="AC89" s="7"/>
       <c r="AD89" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
-      <c r="C90" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>325</v>
-      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
       <c r="F90" s="12"/>
-      <c r="G90" s="11" t="s">
-        <v>326</v>
-      </c>
+      <c r="G90" s="11"/>
       <c r="H90" s="13"/>
       <c r="I90" s="12"/>
-      <c r="J90" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="K90" s="11" t="s">
-        <v>328</v>
-      </c>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
@@ -7774,30 +7726,18 @@
       <c r="AC90" s="12"/>
       <c r="AD90" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
-      <c r="C91" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>331</v>
-      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11"/>
       <c r="F91" s="12"/>
-      <c r="G91" s="11" t="s">
-        <v>326</v>
-      </c>
+      <c r="G91" s="11"/>
       <c r="H91" s="13"/>
       <c r="I91" s="12"/>
-      <c r="J91" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="K91" s="11" t="s">
-        <v>333</v>
-      </c>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
       <c r="N91" s="12"/>

--- a/public/assets/data/renovation_upgrade.xlsx
+++ b/public/assets/data/renovation_upgrade.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DB0C01-74DA-4686-B0EC-3D22460AF4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Лист1!$A$1:$AD$86</definedName>
   </definedNames>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -239,6 +233,9 @@
     <t>6.</t>
   </si>
   <si>
+    <t>Беларик (1,2 га)</t>
+  </si>
+  <si>
     <t>1,5</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>7.</t>
+  </si>
+  <si>
+    <t>Кушбеги (1 га)</t>
   </si>
   <si>
     <t>2,5</t>
@@ -279,12 +279,18 @@
     <t>9.</t>
   </si>
   <si>
+    <t>Илтифот 1 (9,3 га)</t>
+  </si>
+  <si>
     <t>Hamsa Concern</t>
   </si>
   <si>
     <t>10.</t>
   </si>
   <si>
+    <t>Илтифот 2 (1,55 га)</t>
+  </si>
+  <si>
     <t>12-18</t>
   </si>
   <si>
@@ -298,6 +304,9 @@
   </si>
   <si>
     <t>11.</t>
+  </si>
+  <si>
+    <t>Илтифот 3 (2,25 га)</t>
   </si>
   <si>
     <t>Mega House Stroy Lyuks</t>
@@ -340,6 +349,9 @@
     <t>15.</t>
   </si>
   <si>
+    <t>Навнихол-1 (6,37 га)</t>
+  </si>
+  <si>
     <t>9-16</t>
   </si>
   <si>
@@ -365,6 +377,9 @@
     <t>Мирабадский</t>
   </si>
   <si>
+    <t>Истиклолобод (0,8 га)</t>
+  </si>
+  <si>
     <t>9-12</t>
   </si>
   <si>
@@ -387,6 +402,9 @@
     <t>Сергелийский</t>
   </si>
   <si>
+    <t>Олтинводий (1,58 га)</t>
+  </si>
+  <si>
     <t>518-14-0-Q/24 
 01.08.2024</t>
   </si>
@@ -400,6 +418,9 @@
     <t>Шайхонтохурский</t>
   </si>
   <si>
+    <t>Лабзак-1 (2,6 га)</t>
+  </si>
+  <si>
     <t>521-14-0-Q/24 
 01.08.2024</t>
   </si>
@@ -407,6 +428,9 @@
     <t>21.</t>
   </si>
   <si>
+    <t>Токимачи-1 (0,25 га)</t>
+  </si>
+  <si>
     <t>World MaxTrade</t>
   </si>
   <si>
@@ -432,6 +456,9 @@
     <t>24.</t>
   </si>
   <si>
+    <t>Хусайн Байқаро (2,44 га)</t>
+  </si>
+  <si>
     <t>9-18</t>
   </si>
   <si>
@@ -445,6 +472,9 @@
   </si>
   <si>
     <t>25.</t>
+  </si>
+  <si>
+    <t>Хусайн Байқаро (7 га)</t>
   </si>
   <si>
     <t xml:space="preserve"> COMFORT CONSTRUCTION</t>
@@ -484,6 +514,9 @@
     <t>29.</t>
   </si>
   <si>
+    <t>Наккошлик (1 га)</t>
+  </si>
+  <si>
     <t>К/5</t>
   </si>
   <si>
@@ -535,6 +568,9 @@
     <t>33.</t>
   </si>
   <si>
+    <t>Лабзак-2 (1,46 га)</t>
+  </si>
+  <si>
     <t>16-25</t>
   </si>
   <si>
@@ -574,6 +610,9 @@
     <t>36.</t>
   </si>
   <si>
+    <t>Буюк Турон (2,43 га)</t>
+  </si>
+  <si>
     <t>2
 2,5</t>
   </si>
@@ -638,10 +677,16 @@
     <t>41.</t>
   </si>
   <si>
+    <t>Жаркурган (22 га)</t>
+  </si>
+  <si>
     <t>7-10</t>
   </si>
   <si>
     <t>42.</t>
+  </si>
+  <si>
+    <t>Шохжахон (4,56 га)</t>
   </si>
   <si>
     <t>1,5
@@ -680,6 +725,9 @@
     <t>45.</t>
   </si>
   <si>
+    <t>Амира Темура (8,9 га)</t>
+  </si>
+  <si>
     <t>360-14-0-Q/25</t>
   </si>
   <si>
@@ -719,12 +767,21 @@
     <t>51.</t>
   </si>
   <si>
+    <t>Янгизамон 1 (2,39 га)</t>
+  </si>
+  <si>
     <t>52.</t>
   </si>
   <si>
+    <t>Янгизамон 2 (4 га)</t>
+  </si>
+  <si>
     <t>53.</t>
   </si>
   <si>
+    <t>Олтинкул (3,92 га)</t>
+  </si>
+  <si>
     <t>54.</t>
   </si>
   <si>
@@ -743,6 +800,9 @@
     <t>56.</t>
   </si>
   <si>
+    <t>Подшобог+Олмачи (3,59 га)</t>
+  </si>
+  <si>
     <t>57.</t>
   </si>
   <si>
@@ -758,13 +818,22 @@
     <t>59.</t>
   </si>
   <si>
+    <t>Ижодкор (2,76 га)</t>
+  </si>
+  <si>
     <t>60.</t>
   </si>
   <si>
+    <t>Сугдиёна-1 (3,4 га)</t>
+  </si>
+  <si>
     <t>9-15</t>
   </si>
   <si>
     <t>61.</t>
+  </si>
+  <si>
+    <t>Сугдиёна-2 (6,87 га)</t>
   </si>
   <si>
     <t>62.</t>
@@ -796,6 +865,9 @@
     <t>65.</t>
   </si>
   <si>
+    <t>Дарёбуйи (8,08 га)</t>
+  </si>
+  <si>
     <t>66.</t>
   </si>
   <si>
@@ -811,6 +883,9 @@
     <t>68.</t>
   </si>
   <si>
+    <t>Бойкургон (1,4 га)</t>
+  </si>
+  <si>
     <t>69.</t>
   </si>
   <si>
@@ -818,6 +893,9 @@
   </si>
   <si>
     <t>70.</t>
+  </si>
+  <si>
+    <t>Кадрият (1,97 га)</t>
   </si>
   <si>
     <t>71.</t>
@@ -917,103 +995,20 @@
     <t>85.</t>
   </si>
   <si>
-    <t>Беларик (1,2 га)</t>
-  </si>
-  <si>
-    <t>Кушбеги (1 га)</t>
-  </si>
-  <si>
-    <t>Илтифот 1 (9,3 га)</t>
-  </si>
-  <si>
-    <t>Илтифот 2 (1,55 га)</t>
-  </si>
-  <si>
-    <t>Илтифот 3 (2,25 га)</t>
-  </si>
-  <si>
-    <t>Навнихол-1 (6,37 га)</t>
-  </si>
-  <si>
-    <t>Олтинводий (1,58 га)</t>
-  </si>
-  <si>
-    <t>Истиклолобод (0,8 га)</t>
-  </si>
-  <si>
-    <t>Лабзак-1 (2,6 га)</t>
-  </si>
-  <si>
-    <t>Лабзак-2 (1,46 га)</t>
-  </si>
-  <si>
-    <t>Токимачи-1 (0,25 га)</t>
-  </si>
-  <si>
-    <t>Буюк Турон (2,43 га)</t>
+    <t>Ёш Авлод (КТИ)</t>
   </si>
   <si>
     <t>86.</t>
   </si>
   <si>
     <t>Уста Ширин (0,15 га)</t>
-  </si>
-  <si>
-    <t>Хусайн Байқаро (2,44 га)</t>
-  </si>
-  <si>
-    <t>Хусайн Байқаро (7 га)</t>
-  </si>
-  <si>
-    <t>Наккошлик (1 га)</t>
-  </si>
-  <si>
-    <t>Жаркурган (22 га)</t>
-  </si>
-  <si>
-    <t>Шохжахон (4,56 га)</t>
-  </si>
-  <si>
-    <t>Амира Темура (8,9 га)</t>
-  </si>
-  <si>
-    <t>Подшобог+Олмачи (3,59 га)</t>
-  </si>
-  <si>
-    <t>Янгизамон 1 (2,39 га)</t>
-  </si>
-  <si>
-    <t>Янгизамон 2 (4 га)</t>
-  </si>
-  <si>
-    <t>Олтинкул (3,92 га)</t>
-  </si>
-  <si>
-    <t>Дарёбуйи (8,08 га)</t>
-  </si>
-  <si>
-    <t>Сугдиёна-1 (3,4 га)</t>
-  </si>
-  <si>
-    <t>Сугдиёна-2 (6,87 га)</t>
-  </si>
-  <si>
-    <t>Бойкургон (1,4 га)</t>
-  </si>
-  <si>
-    <t>Кадрият (1,97 га)</t>
-  </si>
-  <si>
-    <t>Ёш Авлод (КТИ)</t>
-  </si>
-  <si>
-    <t>Ижодкор (2,76 га)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1037,7 +1032,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1051,7 +1046,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1065,16 +1060,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,60 +1084,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1153,10 +1159,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1194,71 +1200,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1286,7 +1292,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1309,11 +1315,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1322,13 +1328,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1338,7 +1344,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1347,7 +1353,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1356,7 +1362,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1364,10 +1370,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1432,51 +1438,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AD91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="54.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="44.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="45.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="39.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="34.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="27.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="60.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="28.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="39.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="33.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="16" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="16" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="17" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="17" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="17" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="36.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="41.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="40.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="38.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="17" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="17" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="14" width="54.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="17" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="14" width="44.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="14" width="45.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="17" width="39.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="17" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="17" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="17" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="14" width="34.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="43.5">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="5">
-        <v>541.20000000000005</v>
+        <v>541.2</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>33</v>
@@ -1658,7 +1662,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="43.5">
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
@@ -1748,7 +1752,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="43.5">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -1836,7 +1840,7 @@
       </c>
       <c r="AD4" s="4"/>
     </row>
-    <row r="5" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="43.5">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="43.5">
       <c r="A6" s="4" t="s">
         <v>62</v>
       </c>
@@ -1992,7 +1996,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="43.5">
       <c r="A7" s="4" t="s">
         <v>68</v>
       </c>
@@ -2000,7 +2004,7 @@
         <v>63</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>287</v>
+        <v>69</v>
       </c>
       <c r="D7" s="5">
         <v>1.25</v>
@@ -2016,7 +2020,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L7" s="7">
         <v>30</v>
@@ -2037,7 +2041,7 @@
         <v>36</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>38</v>
@@ -2053,7 +2057,7 @@
         <v>45768</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>40</v>
@@ -2074,15 +2078,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="43.5">
       <c r="A8" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>288</v>
+        <v>74</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -2098,7 +2102,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L8" s="7">
         <v>30</v>
@@ -2119,7 +2123,7 @@
         <v>36</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>38</v>
@@ -2135,7 +2139,7 @@
         <v>45768</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>40</v>
@@ -2156,15 +2160,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="43.5">
       <c r="A9" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9" s="5">
         <v>0.31</v>
@@ -2200,7 +2204,7 @@
         <v>10</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>35</v>
@@ -2210,7 +2214,7 @@
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -2223,21 +2227,21 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="43.5">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>289</v>
+        <v>84</v>
       </c>
       <c r="D10" s="5">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>33</v>
@@ -2249,7 +2253,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="5">
-        <v>16716.669999999998</v>
+        <v>16716.67</v>
       </c>
       <c r="I10" s="7">
         <v>14</v>
@@ -2258,7 +2262,7 @@
         <v>19434</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7">
         <v>30</v>
@@ -2270,7 +2274,7 @@
         <v>12</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>35</v>
@@ -2279,7 +2283,7 @@
         <v>36</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>38</v>
@@ -2300,15 +2304,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="43.5">
       <c r="A11" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>290</v>
+        <v>87</v>
       </c>
       <c r="D11" s="5">
         <v>1.55</v>
@@ -2332,7 +2336,7 @@
         <v>1004</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7">
         <v>30</v>
@@ -2341,10 +2345,10 @@
         <v>5</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>35</v>
@@ -2353,7 +2357,7 @@
         <v>36</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>38</v>
@@ -2369,10 +2373,10 @@
         <v>45768</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="7">
         <v>45792</v>
@@ -2390,15 +2394,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="43.5">
       <c r="A12" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="D12" s="5">
         <v>2.25</v>
@@ -2422,7 +2426,7 @@
         <v>1400</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7">
         <v>30</v>
@@ -2434,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>35</v>
@@ -2443,10 +2447,10 @@
         <v>36</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="T12" s="7">
         <v>-1</v>
@@ -2464,15 +2468,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="43.5">
       <c r="A13" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D13" s="5">
         <v>3.2</v>
@@ -2508,7 +2512,7 @@
         <v>7</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>35</v>
@@ -2517,7 +2521,7 @@
         <v>36</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>38</v>
@@ -2533,10 +2537,10 @@
         <v>45768</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z13" s="7">
         <v>45792</v>
@@ -2554,15 +2558,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="43.5">
       <c r="A14" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D14" s="5">
         <v>3.7</v>
@@ -2598,7 +2602,7 @@
         <v>12</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>35</v>
@@ -2608,7 +2612,7 @@
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -2621,18 +2625,18 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="27.600000000000005">
       <c r="A15" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D15" s="5">
         <v>3.3</v>
@@ -2656,7 +2660,7 @@
         <v>33</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L15" s="7">
         <v>30</v>
@@ -2668,7 +2672,7 @@
         <v>16</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>35</v>
@@ -2677,7 +2681,7 @@
         <v>36</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>38</v>
@@ -2700,15 +2704,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="27.600000000000005">
       <c r="A16" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="D16" s="5">
         <v>6.37</v>
@@ -2732,7 +2736,7 @@
         <v>10123</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7">
         <v>30</v>
@@ -2741,10 +2745,10 @@
         <v>5</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>35</v>
@@ -2754,7 +2758,7 @@
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -2767,18 +2771,18 @@
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="27.600000000000005">
       <c r="A17" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D17" s="5">
         <v>0.4</v>
@@ -2802,7 +2806,7 @@
         <v>175</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7">
         <v>30</v>
@@ -2814,7 +2818,7 @@
         <v>14</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>35</v>
@@ -2823,10 +2827,10 @@
         <v>36</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="T17" s="7">
         <v>1</v>
@@ -2844,15 +2848,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="27.600000000000005">
       <c r="A18" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>294</v>
+        <v>116</v>
       </c>
       <c r="D18" s="5">
         <v>0.8</v>
@@ -2885,10 +2889,10 @@
         <v>5</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4" t="s">
@@ -2896,10 +2900,10 @@
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="4"/>
@@ -2911,18 +2915,18 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="27.600000000000005">
       <c r="A19" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D19" s="5">
         <v>12.9</v>
@@ -2958,7 +2962,7 @@
         <v>16</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4" t="s">
@@ -2966,7 +2970,7 @@
       </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -2979,18 +2983,18 @@
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="27.600000000000005">
       <c r="A20" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>293</v>
+        <v>124</v>
       </c>
       <c r="D20" s="5">
         <v>1.58</v>
@@ -3026,7 +3030,7 @@
         <v>12</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>35</v>
@@ -3035,7 +3039,7 @@
         <v>36</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="S20" s="4" t="s">
         <v>38</v>
@@ -3058,15 +3062,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="27.600000000000005">
       <c r="A21" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>295</v>
+        <v>129</v>
       </c>
       <c r="D21" s="5">
         <v>2.6</v>
@@ -3102,7 +3106,7 @@
         <v>16</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>35</v>
@@ -3112,7 +3116,7 @@
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -3125,18 +3129,18 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="27.600000000000005">
       <c r="A22" s="4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="D22" s="5">
         <v>0.25</v>
@@ -3160,7 +3164,7 @@
         <v>162</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L22" s="7">
         <v>30</v>
@@ -3181,10 +3185,10 @@
         <v>36</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="T22" s="7">
         <v>-1</v>
@@ -3202,15 +3206,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="27.600000000000005">
       <c r="A23" s="4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D23" s="5">
         <v>0.4</v>
@@ -3234,7 +3238,7 @@
         <v>33</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7">
         <v>30</v>
@@ -3254,7 +3258,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -3267,21 +3271,21 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="27.600000000000005">
       <c r="A24" s="4" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D24" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E24" s="7">
         <v>25</v>
@@ -3302,7 +3306,7 @@
         <v>9362</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="7">
         <v>60</v>
@@ -3314,7 +3318,7 @@
         <v>10</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>35</v>
@@ -3322,7 +3326,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
@@ -3336,15 +3340,15 @@
       <c r="AC24" s="7"/>
       <c r="AD24" s="4"/>
     </row>
-    <row r="25" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="27.600000000000005">
       <c r="A25" s="4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="D25" s="5">
         <v>2.44</v>
@@ -3368,7 +3372,7 @@
         <v>33</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L25" s="7">
         <v>30</v>
@@ -3377,10 +3381,10 @@
         <v>5</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>35</v>
@@ -3389,7 +3393,7 @@
         <v>36</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="S25" s="4" t="s">
         <v>38</v>
@@ -3402,13 +3406,13 @@
       </c>
       <c r="V25" s="4"/>
       <c r="W25" s="6" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X25" s="4" t="s">
         <v>55</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Z25" s="7">
         <v>45792</v>
@@ -3426,15 +3430,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="27.600000000000005">
       <c r="A26" s="4" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="D26" s="5">
         <v>7</v>
@@ -3458,7 +3462,7 @@
         <v>7896</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L26" s="7">
         <v>30</v>
@@ -3470,7 +3474,7 @@
         <v>12</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>35</v>
@@ -3479,7 +3483,7 @@
         <v>36</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="S26" s="4" t="s">
         <v>38</v>
@@ -3492,13 +3496,13 @@
       </c>
       <c r="V26" s="4"/>
       <c r="W26" s="6" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Z26" s="7">
         <v>45792</v>
@@ -3516,15 +3520,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="27.600000000000005">
       <c r="A27" s="4" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D27" s="5">
         <v>0.4</v>
@@ -3560,7 +3564,7 @@
         <v>35</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>35</v>
@@ -3569,7 +3573,7 @@
         <v>36</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="S27" s="4" t="s">
         <v>38</v>
@@ -3582,10 +3586,10 @@
       </c>
       <c r="V27" s="4"/>
       <c r="W27" s="6" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y27" s="4" t="s">
         <v>40</v>
@@ -3606,15 +3610,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="27.600000000000005">
       <c r="A28" s="4" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D28" s="5">
         <v>0.3</v>
@@ -3647,10 +3651,10 @@
         <v>7</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>35</v>
@@ -3659,10 +3663,10 @@
         <v>36</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="T28" s="7">
         <v>-1</v>
@@ -3680,15 +3684,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="27.600000000000005">
       <c r="A29" s="4" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D29" s="5">
         <v>7.3</v>
@@ -3721,10 +3725,10 @@
         <v>5</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>35</v>
@@ -3732,7 +3736,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -3745,18 +3749,18 @@
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="27.600000000000005">
       <c r="A30" s="4" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>303</v>
+        <v>160</v>
       </c>
       <c r="D30" s="7">
         <v>1</v>
@@ -3771,7 +3775,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="5">
-        <v>4710.1400000000003</v>
+        <v>4710.14</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>33</v>
@@ -3786,13 +3790,13 @@
         <v>20</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>35</v>
@@ -3801,7 +3805,7 @@
         <v>36</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>38</v>
@@ -3824,15 +3828,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="27.600000000000005">
       <c r="A31" s="4" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D31" s="5">
         <v>1.64</v>
@@ -3868,7 +3872,7 @@
         <v>12</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>35</v>
@@ -3877,10 +3881,10 @@
         <v>36</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="T31" s="7">
         <v>-1</v>
@@ -3898,15 +3902,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="27.600000000000005">
       <c r="A32" s="4" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D32" s="5">
         <v>0.3</v>
@@ -3936,13 +3940,13 @@
         <v>30</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="N32" s="7">
         <v>7</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>35</v>
@@ -3950,7 +3954,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
@@ -3963,18 +3967,18 @@
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
       <c r="AD32" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="27.600000000000005">
       <c r="A33" s="4" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D33" s="5">
         <v>2.5</v>
@@ -3998,10 +4002,10 @@
         <v>1000</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>47</v>
@@ -4010,7 +4014,7 @@
         <v>16</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>35</v>
@@ -4019,7 +4023,7 @@
         <v>36</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="S33" s="4" t="s">
         <v>38</v>
@@ -4040,15 +4044,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="27.600000000000005">
       <c r="A34" s="4" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>296</v>
+        <v>177</v>
       </c>
       <c r="D34" s="5">
         <v>1.46</v>
@@ -4081,10 +4085,10 @@
         <v>5</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>35</v>
@@ -4093,10 +4097,10 @@
         <v>36</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="T34" s="7">
         <v>1</v>
@@ -4114,15 +4118,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="27.600000000000005">
       <c r="A35" s="4" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D35" s="7">
         <v>1</v>
@@ -4137,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="5">
-        <v>565.91999999999996</v>
+        <v>565.92</v>
       </c>
       <c r="I35" s="7">
         <v>17</v>
@@ -4158,7 +4162,7 @@
         <v>9</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>35</v>
@@ -4167,10 +4171,10 @@
         <v>36</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="T35" s="7">
         <v>-1</v>
@@ -4188,15 +4192,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="27.600000000000005">
       <c r="A36" s="4" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="D36" s="5">
         <v>28.89</v>
@@ -4223,16 +4227,16 @@
         <v>45</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>35</v>
@@ -4241,10 +4245,10 @@
         <v>36</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="T36" s="7">
         <v>1</v>
@@ -4262,18 +4266,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="27.600000000000005">
       <c r="A37" s="4" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>298</v>
+        <v>190</v>
       </c>
       <c r="D37" s="5">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="E37" s="7">
         <v>28</v>
@@ -4294,19 +4298,19 @@
         <v>2931</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>35</v>
@@ -4315,10 +4319,10 @@
         <v>36</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="T37" s="7">
         <v>-1</v>
@@ -4336,15 +4340,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="27.600000000000005">
       <c r="A38" s="4" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D38" s="5">
         <v>4.2</v>
@@ -4380,7 +4384,7 @@
         <v>10</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>35</v>
@@ -4389,10 +4393,10 @@
         <v>36</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="T38" s="7">
         <v>1</v>
@@ -4410,15 +4414,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="27.600000000000005">
       <c r="A39" s="4" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D39" s="5">
         <v>3.7</v>
@@ -4454,7 +4458,7 @@
         <v>9</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>35</v>
@@ -4462,7 +4466,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
@@ -4475,18 +4479,18 @@
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
       <c r="AD39" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="27.600000000000005">
       <c r="A40" s="4" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D40" s="7">
         <v>2</v>
@@ -4522,7 +4526,7 @@
         <v>13</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>35</v>
@@ -4531,10 +4535,10 @@
         <v>36</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="T40" s="7">
         <v>1</v>
@@ -4552,15 +4556,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="27.600000000000005">
       <c r="A41" s="4" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D41" s="5">
         <v>0.41</v>
@@ -4575,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="5">
-        <v>1028.6300000000001</v>
+        <v>1028.63</v>
       </c>
       <c r="I41" s="7">
         <v>4</v>
@@ -4590,13 +4594,13 @@
         <v>20</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="N41" s="7">
         <v>12</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>35</v>
@@ -4604,7 +4608,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
@@ -4618,15 +4622,15 @@
       <c r="AC41" s="7"/>
       <c r="AD41" s="4"/>
     </row>
-    <row r="42" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="27.600000000000005">
       <c r="A42" s="4" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>304</v>
+        <v>211</v>
       </c>
       <c r="D42" s="5">
         <v>22</v>
@@ -4650,7 +4654,7 @@
         <v>45128</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L42" s="7">
         <v>30</v>
@@ -4659,10 +4663,10 @@
         <v>5</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>35</v>
@@ -4672,7 +4676,7 @@
       </c>
       <c r="R42" s="4"/>
       <c r="S42" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -4686,18 +4690,18 @@
       <c r="AC42" s="7"/>
       <c r="AD42" s="4"/>
     </row>
-    <row r="43" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="27.600000000000005">
       <c r="A43" s="4" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="D43" s="5">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>33</v>
@@ -4718,19 +4722,19 @@
         <v>7281</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M43" s="7">
         <v>5</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>35</v>
@@ -4739,7 +4743,7 @@
         <v>36</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="S43" s="4" t="s">
         <v>38</v>
@@ -4760,15 +4764,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="27.600000000000005">
       <c r="A44" s="4" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D44" s="5">
         <v>2.35</v>
@@ -4792,7 +4796,7 @@
         <v>2828</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L44" s="7">
         <v>30</v>
@@ -4801,16 +4805,16 @@
         <v>5</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -4824,15 +4828,15 @@
       <c r="AC44" s="7"/>
       <c r="AD44" s="4"/>
     </row>
-    <row r="45" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="27.600000000000005">
       <c r="A45" s="4" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="D45" s="5">
         <v>8.15</v>
@@ -4868,13 +4872,13 @@
         <v>16</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -4888,15 +4892,15 @@
       <c r="AC45" s="7"/>
       <c r="AD45" s="4"/>
     </row>
-    <row r="46" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="27.600000000000005">
       <c r="A46" s="4" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="D46" s="5">
         <v>8.9</v>
@@ -4920,7 +4924,7 @@
         <v>4250</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L46" s="7">
         <v>30</v>
@@ -4932,13 +4936,13 @@
         <v>16</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -4952,15 +4956,15 @@
       <c r="AC46" s="7"/>
       <c r="AD46" s="4"/>
     </row>
-    <row r="47" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="27.600000000000005">
       <c r="A47" s="4" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="D47" s="5">
         <v>0.88</v>
@@ -4984,7 +4988,7 @@
         <v>571</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L47" s="7">
         <v>30</v>
@@ -4996,13 +5000,13 @@
         <v>16</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
@@ -5016,15 +5020,15 @@
       <c r="AC47" s="7"/>
       <c r="AD47" s="4"/>
     </row>
-    <row r="48" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="27.600000000000005">
       <c r="A48" s="4" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D48" s="5">
         <v>3.2</v>
@@ -5060,13 +5064,13 @@
         <v>12</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
@@ -5080,15 +5084,15 @@
       <c r="AC48" s="7"/>
       <c r="AD48" s="4"/>
     </row>
-    <row r="49" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="27.600000000000005">
       <c r="A49" s="4" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="D49" s="7">
         <v>3</v>
@@ -5112,7 +5116,7 @@
         <v>2529</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L49" s="7">
         <v>30</v>
@@ -5124,16 +5128,16 @@
         <v>16</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="U49" s="7"/>
       <c r="V49" s="4"/>
@@ -5146,15 +5150,15 @@
       <c r="AC49" s="7"/>
       <c r="AD49" s="4"/>
     </row>
-    <row r="50" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="27.600000000000005">
       <c r="A50" s="4" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="D50" s="7">
         <v>4</v>
@@ -5190,13 +5194,13 @@
         <v>16</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
@@ -5210,15 +5214,15 @@
       <c r="AC50" s="7"/>
       <c r="AD50" s="4"/>
     </row>
-    <row r="51" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="27.600000000000005">
       <c r="A51" s="4" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D51" s="5">
         <v>8.26</v>
@@ -5254,13 +5258,13 @@
         <v>16</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
@@ -5274,15 +5278,15 @@
       <c r="AC51" s="7"/>
       <c r="AD51" s="4"/>
     </row>
-    <row r="52" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="27.600000000000005">
       <c r="A52" s="4" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="D52" s="5">
         <v>2.39</v>
@@ -5318,7 +5322,7 @@
         <v>16</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P52" s="4"/>
       <c r="Q52" s="4" t="s">
@@ -5326,7 +5330,7 @@
       </c>
       <c r="R52" s="4"/>
       <c r="S52" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
@@ -5340,15 +5344,15 @@
       <c r="AC52" s="7"/>
       <c r="AD52" s="4"/>
     </row>
-    <row r="53" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="27.600000000000005">
       <c r="A53" s="4" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>309</v>
+        <v>242</v>
       </c>
       <c r="D53" s="7">
         <v>4</v>
@@ -5372,7 +5376,7 @@
         <v>308</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L53" s="7">
         <v>30</v>
@@ -5384,7 +5388,7 @@
         <v>16</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P53" s="4"/>
       <c r="Q53" s="4" t="s">
@@ -5392,7 +5396,7 @@
       </c>
       <c r="R53" s="4"/>
       <c r="S53" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
@@ -5406,15 +5410,15 @@
       <c r="AC53" s="7"/>
       <c r="AD53" s="4"/>
     </row>
-    <row r="54" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="27.600000000000005">
       <c r="A54" s="4" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="D54" s="5">
         <v>3.92</v>
@@ -5438,7 +5442,7 @@
         <v>9362</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L54" s="7">
         <v>30</v>
@@ -5450,7 +5454,7 @@
         <v>16</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P54" s="4"/>
       <c r="Q54" s="4" t="s">
@@ -5458,7 +5462,7 @@
       </c>
       <c r="R54" s="4"/>
       <c r="S54" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
@@ -5472,15 +5476,15 @@
       <c r="AC54" s="7"/>
       <c r="AD54" s="4"/>
     </row>
-    <row r="55" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="27.600000000000005">
       <c r="A55" s="4" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="D55" s="5">
         <v>1.84</v>
@@ -5504,7 +5508,7 @@
         <v>23000</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L55" s="7">
         <v>30</v>
@@ -5516,7 +5520,7 @@
         <v>16</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P55" s="4"/>
       <c r="Q55" s="4" t="s">
@@ -5524,7 +5528,7 @@
       </c>
       <c r="R55" s="4"/>
       <c r="S55" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
@@ -5538,18 +5542,18 @@
       <c r="AC55" s="7"/>
       <c r="AD55" s="4"/>
     </row>
-    <row r="56" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="27.600000000000005">
       <c r="A56" s="4" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="D56" s="5">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="E56" s="7">
         <v>3</v>
@@ -5561,7 +5565,7 @@
         <v>23</v>
       </c>
       <c r="H56" s="5">
-        <v>9706.2900000000009</v>
+        <v>9706.29</v>
       </c>
       <c r="I56" s="7">
         <v>28</v>
@@ -5576,13 +5580,13 @@
         <v>60</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="N56" s="7">
         <v>16</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P56" s="4"/>
       <c r="Q56" s="4" t="s">
@@ -5590,7 +5594,7 @@
       </c>
       <c r="R56" s="4"/>
       <c r="S56" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
@@ -5604,15 +5608,15 @@
       <c r="AC56" s="7"/>
       <c r="AD56" s="4"/>
     </row>
-    <row r="57" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="27.600000000000005">
       <c r="A57" s="4" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="D57" s="5">
         <v>3.59</v>
@@ -5648,7 +5652,7 @@
         <v>16</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P57" s="4"/>
       <c r="Q57" s="4" t="s">
@@ -5656,7 +5660,7 @@
       </c>
       <c r="R57" s="4"/>
       <c r="S57" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
@@ -5670,18 +5674,18 @@
       <c r="AC57" s="7"/>
       <c r="AD57" s="4"/>
     </row>
-    <row r="58" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="27.600000000000005">
       <c r="A58" s="4" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="D58" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>33</v>
@@ -5702,7 +5706,7 @@
         <v>33</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L58" s="7">
         <v>30</v>
@@ -5714,7 +5718,7 @@
         <v>16</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P58" s="4"/>
       <c r="Q58" s="4" t="s">
@@ -5722,7 +5726,7 @@
       </c>
       <c r="R58" s="4"/>
       <c r="S58" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
@@ -5736,15 +5740,15 @@
       <c r="AC58" s="7"/>
       <c r="AD58" s="4"/>
     </row>
-    <row r="59" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="27.600000000000005">
       <c r="A59" s="4" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="D59" s="5">
         <v>1.21</v>
@@ -5780,7 +5784,7 @@
         <v>16</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P59" s="4"/>
       <c r="Q59" s="4" t="s">
@@ -5788,7 +5792,7 @@
       </c>
       <c r="R59" s="4"/>
       <c r="S59" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
@@ -5802,15 +5806,15 @@
       <c r="AC59" s="7"/>
       <c r="AD59" s="4"/>
     </row>
-    <row r="60" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="27.600000000000005">
       <c r="A60" s="4" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="D60" s="5">
         <v>2.76</v>
@@ -5825,7 +5829,7 @@
         <v>10</v>
       </c>
       <c r="H60" s="5">
-        <v>8203.2000000000007</v>
+        <v>8203.2</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>33</v>
@@ -5846,7 +5850,7 @@
         <v>16</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P60" s="4"/>
       <c r="Q60" s="4" t="s">
@@ -5854,7 +5858,7 @@
       </c>
       <c r="R60" s="4"/>
       <c r="S60" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
@@ -5868,15 +5872,15 @@
       <c r="AC60" s="7"/>
       <c r="AD60" s="4"/>
     </row>
-    <row r="61" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="27.600000000000005">
       <c r="A61" s="4" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="D61" s="5">
         <v>3.4</v>
@@ -5900,7 +5904,7 @@
         <v>3366</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L61" s="7">
         <v>30</v>
@@ -5909,10 +5913,10 @@
         <v>5</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P61" s="4"/>
       <c r="Q61" s="4" t="s">
@@ -5920,7 +5924,7 @@
       </c>
       <c r="R61" s="4"/>
       <c r="S61" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
@@ -5934,15 +5938,15 @@
       <c r="AC61" s="7"/>
       <c r="AD61" s="4"/>
     </row>
-    <row r="62" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="27.600000000000005">
       <c r="A62" s="4" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="D62" s="5">
         <v>6.87</v>
@@ -5972,13 +5976,13 @@
         <v>40</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P62" s="4"/>
       <c r="Q62" s="4" t="s">
@@ -5986,7 +5990,7 @@
       </c>
       <c r="R62" s="4"/>
       <c r="S62" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
@@ -6000,15 +6004,15 @@
       <c r="AC62" s="7"/>
       <c r="AD62" s="4"/>
     </row>
-    <row r="63" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="27.600000000000005">
       <c r="A63" s="4" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="D63" s="7">
         <v>4</v>
@@ -6044,7 +6048,7 @@
         <v>16</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P63" s="4"/>
       <c r="Q63" s="4" t="s">
@@ -6052,7 +6056,7 @@
       </c>
       <c r="R63" s="4"/>
       <c r="S63" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
@@ -6066,15 +6070,15 @@
       <c r="AC63" s="7"/>
       <c r="AD63" s="4"/>
     </row>
-    <row r="64" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="27.600000000000005">
       <c r="A64" s="4" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="D64" s="5">
         <v>3.5</v>
@@ -6098,10 +6102,10 @@
         <v>481</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="M64" s="7">
         <v>5</v>
@@ -6110,7 +6114,7 @@
         <v>16</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P64" s="4"/>
       <c r="Q64" s="4" t="s">
@@ -6118,7 +6122,7 @@
       </c>
       <c r="R64" s="4"/>
       <c r="S64" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
@@ -6132,15 +6136,15 @@
       <c r="AC64" s="7"/>
       <c r="AD64" s="4"/>
     </row>
-    <row r="65" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="27.600000000000005">
       <c r="A65" s="4" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="D65" s="5">
         <v>7.47</v>
@@ -6160,19 +6164,19 @@
         <v>5709</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L65" s="7">
         <v>30</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="N65" s="7">
         <v>16</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P65" s="4"/>
       <c r="Q65" s="4" t="s">
@@ -6180,7 +6184,7 @@
       </c>
       <c r="R65" s="4"/>
       <c r="S65" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
@@ -6194,15 +6198,15 @@
       <c r="AC65" s="7"/>
       <c r="AD65" s="4"/>
     </row>
-    <row r="66" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="27.600000000000005">
       <c r="A66" s="4" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="D66" s="5">
         <v>8.08</v>
@@ -6238,7 +6242,7 @@
         <v>18</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P66" s="4"/>
       <c r="Q66" s="4" t="s">
@@ -6246,7 +6250,7 @@
       </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
@@ -6260,15 +6264,15 @@
       <c r="AC66" s="7"/>
       <c r="AD66" s="4"/>
     </row>
-    <row r="67" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="27.600000000000005">
       <c r="A67" s="4" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="D67" s="5">
         <v>2.64</v>
@@ -6312,7 +6316,7 @@
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
@@ -6326,15 +6330,15 @@
       <c r="AC67" s="7"/>
       <c r="AD67" s="4"/>
     </row>
-    <row r="68" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="27.600000000000005">
       <c r="A68" s="4" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D68" s="5">
         <v>34.22</v>
@@ -6370,13 +6374,13 @@
         <v>16</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
@@ -6390,15 +6394,15 @@
       <c r="AC68" s="7"/>
       <c r="AD68" s="4"/>
     </row>
-    <row r="69" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="27.600000000000005">
       <c r="A69" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="D69" s="5">
         <v>1.4</v>
@@ -6413,7 +6417,7 @@
         <v>7</v>
       </c>
       <c r="H69" s="5">
-        <v>4190.6499999999996</v>
+        <v>4190.65</v>
       </c>
       <c r="I69" s="7">
         <v>6</v>
@@ -6422,7 +6426,7 @@
         <v>520</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L69" s="7">
         <v>60</v>
@@ -6434,7 +6438,7 @@
         <v>16</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P69" s="4"/>
       <c r="Q69" s="4" t="s">
@@ -6442,7 +6446,7 @@
       </c>
       <c r="R69" s="4"/>
       <c r="S69" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
@@ -6456,15 +6460,15 @@
       <c r="AC69" s="7"/>
       <c r="AD69" s="4"/>
     </row>
-    <row r="70" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="27.600000000000005">
       <c r="A70" s="4" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="D70" s="5">
         <v>5.19</v>
@@ -6488,7 +6492,7 @@
         <v>16377</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L70" s="7">
         <v>60</v>
@@ -6500,7 +6504,7 @@
         <v>16</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P70" s="4"/>
       <c r="Q70" s="4" t="s">
@@ -6508,7 +6512,7 @@
       </c>
       <c r="R70" s="4"/>
       <c r="S70" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
@@ -6522,15 +6526,15 @@
       <c r="AC70" s="7"/>
       <c r="AD70" s="4"/>
     </row>
-    <row r="71" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="27.600000000000005">
       <c r="A71" s="4" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="D71" s="5">
         <v>1.97</v>
@@ -6566,7 +6570,7 @@
         <v>16</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P71" s="4"/>
       <c r="Q71" s="4" t="s">
@@ -6574,7 +6578,7 @@
       </c>
       <c r="R71" s="4"/>
       <c r="S71" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
@@ -6588,18 +6592,18 @@
       <c r="AC71" s="7"/>
       <c r="AD71" s="4"/>
     </row>
-    <row r="72" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="27.600000000000005">
       <c r="A72" s="4" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="D72" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E72" s="7">
         <v>1</v>
@@ -6632,7 +6636,7 @@
         <v>16</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P72" s="4"/>
       <c r="Q72" s="4" t="s">
@@ -6640,7 +6644,7 @@
       </c>
       <c r="R72" s="4"/>
       <c r="S72" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
@@ -6654,15 +6658,15 @@
       <c r="AC72" s="7"/>
       <c r="AD72" s="4"/>
     </row>
-    <row r="73" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="27.600000000000005">
       <c r="A73" s="4" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="D73" s="5">
         <v>0.3</v>
@@ -6677,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="5">
-        <v>612.07000000000005</v>
+        <v>612.07</v>
       </c>
       <c r="I73" s="7">
         <v>3</v>
@@ -6695,10 +6699,10 @@
         <v>59</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P73" s="4"/>
       <c r="Q73" s="4" t="s">
@@ -6706,7 +6710,7 @@
       </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
@@ -6720,15 +6724,15 @@
       <c r="AC73" s="7"/>
       <c r="AD73" s="4"/>
     </row>
-    <row r="74" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="27.600000000000005">
       <c r="A74" s="4" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="D74" s="5">
         <v>0.48</v>
@@ -6752,7 +6756,7 @@
         <v>33</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L74" s="7">
         <v>30</v>
@@ -6764,7 +6768,7 @@
         <v>16</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="P74" s="4"/>
       <c r="Q74" s="4" t="s">
@@ -6772,7 +6776,7 @@
       </c>
       <c r="R74" s="4"/>
       <c r="S74" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
@@ -6786,15 +6790,15 @@
       <c r="AC74" s="7"/>
       <c r="AD74" s="4"/>
     </row>
-    <row r="75" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="27.600000000000005">
       <c r="A75" s="4" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="D75" s="5">
         <v>2.12</v>
@@ -6818,7 +6822,7 @@
         <v>1326</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L75" s="7">
         <v>30</v>
@@ -6830,7 +6834,7 @@
         <v>16</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="P75" s="4"/>
       <c r="Q75" s="4" t="s">
@@ -6838,7 +6842,7 @@
       </c>
       <c r="R75" s="4"/>
       <c r="S75" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
@@ -6852,15 +6856,15 @@
       <c r="AC75" s="7"/>
       <c r="AD75" s="4"/>
     </row>
-    <row r="76" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="27.600000000000005">
       <c r="A76" s="4" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="D76" s="5">
         <v>1.65</v>
@@ -6884,7 +6888,7 @@
         <v>33</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L76" s="7">
         <v>30</v>
@@ -6896,7 +6900,7 @@
         <v>16</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="P76" s="4"/>
       <c r="Q76" s="4" t="s">
@@ -6904,7 +6908,7 @@
       </c>
       <c r="R76" s="4"/>
       <c r="S76" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
@@ -6918,15 +6922,15 @@
       <c r="AC76" s="7"/>
       <c r="AD76" s="4"/>
     </row>
-    <row r="77" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="27.600000000000005">
       <c r="A77" s="4" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="D77" s="5">
         <v>0.8</v>
@@ -6950,7 +6954,7 @@
         <v>33</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L77" s="7">
         <v>30</v>
@@ -6962,7 +6966,7 @@
         <v>16</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="P77" s="4"/>
       <c r="Q77" s="4" t="s">
@@ -6970,7 +6974,7 @@
       </c>
       <c r="R77" s="4"/>
       <c r="S77" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
@@ -6984,15 +6988,15 @@
       <c r="AC77" s="7"/>
       <c r="AD77" s="4"/>
     </row>
-    <row r="78" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="27.600000000000005">
       <c r="A78" s="4" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="D78" s="5">
         <v>1.19</v>
@@ -7028,7 +7032,7 @@
         <v>16</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="P78" s="4"/>
       <c r="Q78" s="4" t="s">
@@ -7036,7 +7040,7 @@
       </c>
       <c r="R78" s="4"/>
       <c r="S78" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
@@ -7050,15 +7054,15 @@
       <c r="AC78" s="7"/>
       <c r="AD78" s="4"/>
     </row>
-    <row r="79" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="27.600000000000005">
       <c r="A79" s="4" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="D79" s="5">
         <v>0.88</v>
@@ -7082,7 +7086,7 @@
         <v>986</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L79" s="7">
         <v>30</v>
@@ -7094,7 +7098,7 @@
         <v>16</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="P79" s="4"/>
       <c r="Q79" s="4" t="s">
@@ -7102,7 +7106,7 @@
       </c>
       <c r="R79" s="4"/>
       <c r="S79" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
@@ -7116,15 +7120,15 @@
       <c r="AC79" s="7"/>
       <c r="AD79" s="4"/>
     </row>
-    <row r="80" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="27.600000000000005">
       <c r="A80" s="4" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="D80" s="5">
         <v>0.33</v>
@@ -7148,7 +7152,7 @@
         <v>70</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L80" s="7">
         <v>30</v>
@@ -7160,7 +7164,7 @@
         <v>16</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="P80" s="4"/>
       <c r="Q80" s="4" t="s">
@@ -7168,7 +7172,7 @@
       </c>
       <c r="R80" s="4"/>
       <c r="S80" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
@@ -7182,15 +7186,15 @@
       <c r="AC80" s="7"/>
       <c r="AD80" s="4"/>
     </row>
-    <row r="81" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="27.600000000000005">
       <c r="A81" s="4" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D81" s="5">
         <v>0.67</v>
@@ -7226,7 +7230,7 @@
         <v>16</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="P81" s="4"/>
       <c r="Q81" s="4" t="s">
@@ -7234,7 +7238,7 @@
       </c>
       <c r="R81" s="4"/>
       <c r="S81" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
@@ -7248,15 +7252,15 @@
       <c r="AC81" s="7"/>
       <c r="AD81" s="4"/>
     </row>
-    <row r="82" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="27.600000000000005">
       <c r="A82" s="4" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D82" s="5">
         <v>0.98</v>
@@ -7292,7 +7296,7 @@
         <v>16</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="P82" s="4"/>
       <c r="Q82" s="4" t="s">
@@ -7300,7 +7304,7 @@
       </c>
       <c r="R82" s="4"/>
       <c r="S82" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T82" s="7"/>
       <c r="U82" s="7"/>
@@ -7314,15 +7318,15 @@
       <c r="AC82" s="7"/>
       <c r="AD82" s="4"/>
     </row>
-    <row r="83" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="27.600000000000005">
       <c r="A83" s="4" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="D83" s="5">
         <v>0.16</v>
@@ -7358,7 +7362,7 @@
         <v>16</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="P83" s="4"/>
       <c r="Q83" s="4" t="s">
@@ -7366,7 +7370,7 @@
       </c>
       <c r="R83" s="4"/>
       <c r="S83" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
@@ -7380,15 +7384,15 @@
       <c r="AC83" s="7"/>
       <c r="AD83" s="4"/>
     </row>
-    <row r="84" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="27.600000000000005">
       <c r="A84" s="4" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="D84" s="5">
         <v>9.73</v>
@@ -7424,7 +7428,7 @@
         <v>16</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="P84" s="4"/>
       <c r="Q84" s="4" t="s">
@@ -7432,7 +7436,7 @@
       </c>
       <c r="R84" s="4"/>
       <c r="S84" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T84" s="7"/>
       <c r="U84" s="7"/>
@@ -7446,15 +7450,15 @@
       <c r="AC84" s="7"/>
       <c r="AD84" s="4"/>
     </row>
-    <row r="85" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="27.600000000000005">
       <c r="A85" s="4" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="D85" s="5">
         <v>9.32</v>
@@ -7490,7 +7494,7 @@
         <v>16</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="P85" s="4"/>
       <c r="Q85" s="4" t="s">
@@ -7498,7 +7502,7 @@
       </c>
       <c r="R85" s="4"/>
       <c r="S85" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
@@ -7512,15 +7516,15 @@
       <c r="AC85" s="7"/>
       <c r="AD85" s="4"/>
     </row>
-    <row r="86" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="27.600000000000005">
       <c r="A86" s="4" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
@@ -7549,17 +7553,17 @@
         <v>7</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="T86" s="6" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="U86" s="7"/>
       <c r="V86" s="4"/>
@@ -7572,15 +7576,15 @@
       <c r="AC86" s="7"/>
       <c r="AD86" s="4"/>
     </row>
-    <row r="87" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="27.600000000000005">
       <c r="A87" s="4" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="D87" s="5">
         <v>0.15</v>
@@ -7616,7 +7620,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
@@ -7630,7 +7634,7 @@
       <c r="AC87" s="7"/>
       <c r="AD87" s="4"/>
     </row>
-    <row r="88" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -7662,7 +7666,7 @@
       <c r="AC88" s="7"/>
       <c r="AD88" s="4"/>
     </row>
-    <row r="89" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -7694,7 +7698,7 @@
       <c r="AC89" s="7"/>
       <c r="AD89" s="4"/>
     </row>
-    <row r="90" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -7726,7 +7730,7 @@
       <c r="AC90" s="12"/>
       <c r="AD90" s="9"/>
     </row>
-    <row r="91" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>

--- a/public/assets/data/renovation_upgrade.xlsx
+++ b/public/assets/data/renovation_upgrade.xlsx
@@ -514,7 +514,7 @@
     <t>29.</t>
   </si>
   <si>
-    <t>Наккошлик (1 га)</t>
+    <t>Наккошлик_1 га</t>
   </si>
   <si>
     <t>К/5</t>

--- a/public/assets/data/renovation_upgrade.xlsx
+++ b/public/assets/data/renovation_upgrade.xlsx
@@ -248,7 +248,7 @@
     <t>7.</t>
   </si>
   <si>
-    <t>Кушбеги (1 га)</t>
+    <t>Кушбеги_1 га</t>
   </si>
   <si>
     <t>2,5</t>
@@ -3062,7 +3062,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="27.600000000000005">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="43.5">
       <c r="A21" s="4" t="s">
         <v>127</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="27.600000000000005">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="43.5">
       <c r="A22" s="4" t="s">
         <v>131</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="27.600000000000005">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="43.5">
       <c r="A23" s="4" t="s">
         <v>134</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="27.600000000000005">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="43.5">
       <c r="A24" s="4" t="s">
         <v>136</v>
       </c>
@@ -3340,7 +3340,7 @@
       <c r="AC24" s="7"/>
       <c r="AD24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="27.600000000000005">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="43.5">
       <c r="A25" s="4" t="s">
         <v>140</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="27.600000000000005">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="43.5">
       <c r="A26" s="4" t="s">
         <v>146</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="27.600000000000005">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="43.5">
       <c r="A27" s="4" t="s">
         <v>149</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="27.600000000000005">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="43.5">
       <c r="A28" s="4" t="s">
         <v>153</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="27.600000000000005">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="43.5">
       <c r="A29" s="4" t="s">
         <v>156</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="27.600000000000005">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="43.5">
       <c r="A30" s="4" t="s">
         <v>159</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="27.600000000000005">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="43.5">
       <c r="A31" s="4" t="s">
         <v>165</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="27.600000000000005">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="43.5">
       <c r="A32" s="4" t="s">
         <v>168</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="27.600000000000005">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="43.5">
       <c r="A33" s="4" t="s">
         <v>171</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="27.600000000000005">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="43.5">
       <c r="A34" s="4" t="s">
         <v>176</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="27.600000000000005">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="43.5">
       <c r="A35" s="4" t="s">
         <v>181</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="27.600000000000005">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="43.5">
       <c r="A36" s="4" t="s">
         <v>184</v>
       </c>

--- a/public/assets/data/renovation_upgrade.xlsx
+++ b/public/assets/data/renovation_upgrade.xlsx
@@ -725,7 +725,7 @@
     <t>45.</t>
   </si>
   <si>
-    <t>Амира Темура (8,9 га)</t>
+    <t>Амира Темура_8,9 га</t>
   </si>
   <si>
     <t>360-14-0-Q/25</t>

--- a/public/assets/data/renovation_upgrade.xlsx
+++ b/public/assets/data/renovation_upgrade.xlsx
@@ -456,7 +456,7 @@
     <t>24.</t>
   </si>
   <si>
-    <t>Хусайн Байқаро (2,44 га)</t>
+    <t>Хусайн Байқаро 2,77 га</t>
   </si>
   <si>
     <t>9-18</t>
@@ -474,7 +474,7 @@
     <t>25.</t>
   </si>
   <si>
-    <t>Хусайн Байқаро (7 га)</t>
+    <t>Хусайн Байқаро 8,23 га</t>
   </si>
   <si>
     <t xml:space="preserve"> COMFORT CONSTRUCTION</t>
@@ -593,7 +593,7 @@
     <t>35.</t>
   </si>
   <si>
-    <t>Самарканд Дарвоза+Олим Ходжаев (28,89 га)</t>
+    <t>Самарканд Дарвоза_Олим Ходжаев 28,89 га</t>
   </si>
   <si>
     <t>40
